--- a/QUALITY DOCUMENTS/Finals Drafts/BSSV - Requirements Traceability Matrix.xlsx
+++ b/QUALITY DOCUMENTS/Finals Drafts/BSSV - Requirements Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asiapacificcollege.sharepoint.com/sites/QUALITYMI201MI203T12023-2024/Shared Documents/Group 03 -  Nacor Industries/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1475" documentId="11_EA67659F5F72F2C3580A71967EB9CDC2BA86F51E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D419E96-306B-4624-8483-2F928566C660}"/>
+  <xr:revisionPtr revIDLastSave="1513" documentId="11_EA67659F5F72F2C3580A71967EB9CDC2BA86F51E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3C33979-DA48-4CA9-AAD8-5CBFE9DABD81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="342">
   <si>
     <t>Business requirement document:</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">7. Generating Report </t>
   </si>
   <si>
+    <t>8. Payment</t>
+  </si>
+  <si>
     <t>Use Cases</t>
   </si>
   <si>
@@ -160,6 +163,15 @@
     <t>7.1 Barangay Data Report</t>
   </si>
   <si>
+    <t>8.1 View List of Payment</t>
+  </si>
+  <si>
+    <t>8.2 Process Onsite Payment</t>
+  </si>
+  <si>
+    <t>8.3 Process Online  Payment</t>
+  </si>
+  <si>
     <t>Modules</t>
   </si>
   <si>
@@ -178,6 +190,12 @@
     <t>TC_01</t>
   </si>
   <si>
+    <t>Verify if the barangay employee can access Admin Login Page</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -940,45 +958,78 @@
     <t>Barangay Captain can see all employees using the tab of Barangay Employee List</t>
   </si>
   <si>
-    <t>Verify if the barangay employee can access Admin Login Page</t>
-  </si>
-  <si>
     <t>TC_133</t>
   </si>
   <si>
+    <t>Verify if the Barangay Treasurer can access View List of Payment</t>
+  </si>
+  <si>
     <t>TC_134</t>
   </si>
   <si>
+    <t>Verify if the Barangay Treasurer can access a receipt from the list</t>
+  </si>
+  <si>
     <t>TC_135</t>
   </si>
   <si>
+    <t>Verify if the Barangay Treasurer can access Manage Payments</t>
+  </si>
+  <si>
     <t>TC_136</t>
   </si>
   <si>
+    <t>Verify if the Barangay Treasurer can access Process Onsite Payment from the dropdown</t>
+  </si>
+  <si>
     <t>TC_137</t>
   </si>
   <si>
+    <t>Verify if the Barangay Treasurer can Confirm a payment from the list</t>
+  </si>
+  <si>
     <t>TC_138</t>
   </si>
   <si>
+    <t>Barangay Treasurer clicks "Proceed" from the Payment details screen</t>
+  </si>
+  <si>
     <t>TC_139</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment with valid and complete  OR, and CTC numbers input</t>
+  </si>
+  <si>
     <t>TC_140</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment with invalid but complete  OR, and CTC numbers input</t>
+  </si>
+  <si>
     <t>TC_141</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment with valid but incomplete OR, and CTC numbers input</t>
+  </si>
+  <si>
     <t>TC_142</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment without  OR, and CTC numbers input</t>
+  </si>
+  <si>
     <t>TC_143</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment onsite</t>
+  </si>
+  <si>
     <t>TC_144</t>
   </si>
   <si>
+    <t>Verify if the Barangay Treasurer can access Process Online Payment from the dropdown</t>
+  </si>
+  <si>
     <t>TC_145</t>
   </si>
   <si>
@@ -988,74 +1039,38 @@
     <t>TC_147</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment with valid and complete Reference, OR, and CTC numbers input</t>
+  </si>
+  <si>
     <t>TC_148</t>
   </si>
   <si>
+    <t>Barangay Treasurer proceeds to confirm the payment with invalid but complete Reference, OR, and CTC numbers input</t>
+  </si>
+  <si>
     <t>TC_149</t>
   </si>
   <si>
-    <t>8. Payment</t>
-  </si>
-  <si>
-    <t>8.1 View List of Payment</t>
-  </si>
-  <si>
-    <t>8.2 Process Onsite Payment</t>
-  </si>
-  <si>
-    <t>8.3 Process Online  Payment</t>
-  </si>
-  <si>
-    <t>Verify if the Barangay Treasurer can access View List of Payment</t>
-  </si>
-  <si>
-    <t>Verify if the Barangay Treasurer can access a receipt from the list</t>
-  </si>
-  <si>
-    <t>Verify if the Barangay Treasurer can access Manage Payments</t>
-  </si>
-  <si>
-    <t>Verify if the Barangay Treasurer can access Process Onsite Payment from the dropdown</t>
-  </si>
-  <si>
-    <t>Verify if the Barangay Treasurer can Confirm a payment from the list</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer clicks "Proceed" from the Payment details screen</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer proceeds to confirm the payment with valid and complete Reference, OR, and CTC numbers input</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer proceeds to confirm the payment with invalid but complete Reference, OR, and CTC numbers input</t>
-  </si>
-  <si>
     <t>Barangay Treasurer proceeds to confirm the payment with valid but incomplete Reference, OR, and CTC numbers input</t>
   </si>
   <si>
+    <t>TC_150</t>
+  </si>
+  <si>
     <t>Barangay Treasurer proceeds to confirm the payment without Reference, OR, and CTC numbers input</t>
   </si>
   <si>
-    <t>Verify if the Barangay Treasurer can access Process Online Payment from the dropdown</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer proceeds to confirm the payment with valid and complete  OR, and CTC numbers input</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer proceeds to confirm the payment with invalid but complete  OR, and CTC numbers input</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer proceeds to confirm the payment with valid but incomplete OR, and CTC numbers input</t>
-  </si>
-  <si>
-    <t>Barangay Treasurer proceeds to confirm the payment without  OR, and CTC numbers input</t>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>Barangay Treasurer proceeds to confirm the payment online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,30 +1082,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1164,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1175,17 +1166,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1194,23 +1185,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1251,6 +1236,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1583,113 +1588,113 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="20.25">
       <c r="AC2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="20.25">
       <c r="AC4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="20.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="20.25">
       <c r="AC6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="20.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="20.25">
       <c r="AC8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="20.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="20.25">
       <c r="AC10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="20.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="20.25">
       <c r="AC12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="20.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="20.25">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="20.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="20.25">
       <c r="A19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="20.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="20.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="20.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="20.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="20.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="28" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="20.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="20.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="31" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="20.25">
       <c r="A31" s="7"/>
     </row>
   </sheetData>
@@ -1701,207 +1706,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C445E75D-37AB-45EF-AE56-B710142249F8}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="B28" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="B30" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="B32" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="B36" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="B38" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="B41" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="B43" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="B47" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="B52" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="20.25">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="B55" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="B57" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="B59" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="B61" s="9"/>
     </row>
   </sheetData>
@@ -1913,11 +1918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="C129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
@@ -1927,1937 +1932,2256 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7" ht="16.5" customHeight="1">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="D52" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="11"/>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="14"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="14"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="14"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="14"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="14"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="14"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="14"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="14"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="14"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="14"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="14"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="14"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="14"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="14"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F94" s="12"/>
-      <c r="G94" s="14"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="14"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="2:7">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="14"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="2:7">
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="14"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="2:7">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F98" s="12"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="2:7">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="14"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="2:7">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="14"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="2:7">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="14"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="14"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="2:7">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="14"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="2:7">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="14"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="2:7">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="14"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="2:7">
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="14"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="2:7">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="14"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="2:7">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="14"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="2:7">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="14"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="2:7">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F110" s="12"/>
-      <c r="G110" s="14"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="2:7">
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="14"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="2:7">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="14"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="2:7">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="14"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="2:7">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F114" s="12"/>
-      <c r="G114" s="14"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="2:7">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F115" s="12"/>
-      <c r="G115" s="14"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="2:7">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F116" s="12"/>
-      <c r="G116" s="14"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="2:7">
       <c r="B117" s="11"/>
       <c r="C117" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F117" s="12"/>
-      <c r="G117" s="14"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="2:7">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="14"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="2:7">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F119" s="12"/>
-      <c r="G119" s="14"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="2:7">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="14"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="13"/>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="14"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="2:7">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="12"/>
-      <c r="G122" s="14"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="2:7">
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="14"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="2:7">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="14"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="2:7">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F125" s="12"/>
-      <c r="G125" s="14"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="2:7">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F126" s="12"/>
-      <c r="G126" s="14"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="2:7">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="14"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="128" spans="2:7">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="14"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="14"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="2:7">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F130" s="12"/>
-      <c r="G130" s="14"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="2:7">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="14"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="2:7">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="14"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="2:7">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F133" s="12"/>
-      <c r="G133" s="14"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G133" s="13"/>
+    </row>
+    <row r="134" spans="2:7">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F134" s="12"/>
-      <c r="G134" s="14"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="2:7">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="14"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G135" s="13"/>
+    </row>
+    <row r="136" spans="2:7">
       <c r="B136" s="11" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F136" s="12"/>
-      <c r="G136" s="14"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="2:7">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="14"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G137" s="13"/>
+    </row>
+    <row r="138" spans="2:7">
       <c r="B138" s="11"/>
       <c r="C138" s="11" t="s">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F138" s="12"/>
-      <c r="G138" s="14"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="2:7">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F139" s="12"/>
-      <c r="G139" s="14"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="2:7">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="14"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="2:7">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="14"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G141" s="13"/>
+    </row>
+    <row r="142" spans="2:7">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="14"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="2:7">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="14"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" s="13"/>
+    </row>
+    <row r="144" spans="2:7">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="14"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G144" s="13"/>
+    </row>
+    <row r="145" spans="2:7">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G145" s="13"/>
+    </row>
+    <row r="146" spans="2:7">
       <c r="B146" s="11"/>
-      <c r="C146" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F146" s="12"/>
-      <c r="G146" s="14"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="11"/>
+      <c r="D146" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G146" s="13"/>
+    </row>
+    <row r="147" spans="2:7">
       <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="14"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G147" s="13"/>
+    </row>
+    <row r="148" spans="2:7">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="14"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D148" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="2:7">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="14"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D149" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G149" s="13"/>
+    </row>
+    <row r="150" spans="2:7">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="14"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D150" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G150" s="13"/>
+    </row>
+    <row r="151" spans="2:7">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="14"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D151" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G151" s="13"/>
+    </row>
+    <row r="152" spans="2:7">
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
-      <c r="D152" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F152" s="12"/>
-      <c r="G152" s="14"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D152" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="2:7">
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="14"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D153" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G153" s="13"/>
+    </row>
+    <row r="154" spans="2:7">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="14"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D154" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G154" s="13"/>
+    </row>
+    <row r="155" spans="2:7">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
       <c r="F155" s="12"/>
-      <c r="G155" s="14"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="13"/>
+    </row>
+    <row r="156" spans="2:7">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="12"/>
-      <c r="G156" s="14"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="2:7">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
       <c r="F157" s="12"/>
-      <c r="G157" s="14"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="13"/>
+    </row>
+    <row r="158" spans="2:7">
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="12"/>
-      <c r="G158" s="14"/>
+      <c r="G158" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F59:F68 F3:F49 F70:F1048576" xr:uid="{63E2ABA7-34A6-4A96-BA07-FBEE0F22377D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{63E2ABA7-34A6-4A96-BA07-FBEE0F22377D}">
       <formula1>"passed,failed,in progress"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F45:F49 F3 F159:F1048576 F5:F18 F24:F39 F21:F22" listDataValidation="1"/>
+    <ignoredError sqref="F3 F159:F1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3875,7 +4199,7 @@
           <x14:formula1>
             <xm:f>'Use Cases'!$B$4:$B$100</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C51 C53:C1048576</xm:sqref>
+          <xm:sqref>C1:C51 C53:C145 C147:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABCA36D4-C073-4376-9D0D-BAAAE2FFDD59}">
           <x14:formula1>
@@ -4133,45 +4457,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9693A888-6447-4900-B907-1720BCDBED9E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8bf23f84-f8bc-4e67-ab33-02601704301c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="becc6418-98a4-4be0-bb44-3ce60d9e2ca3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9693A888-6447-4900-B907-1720BCDBED9E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1394C93-7AA2-4515-A467-DC10A53C3B16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1394C93-7AA2-4515-A467-DC10A53C3B16}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275B21A0-4071-4201-B62C-045477986464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8bf23f84-f8bc-4e67-ab33-02601704301c"/>
-    <ds:schemaRef ds:uri="becc6418-98a4-4be0-bb44-3ce60d9e2ca3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275B21A0-4071-4201-B62C-045477986464}"/>
 </file>